--- a/static/SkyAirtime_Misc_Services_Pricing.xlsx
+++ b/static/SkyAirtime_Misc_Services_Pricing.xlsx
@@ -454,7 +454,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -513,10 +513,11 @@
         <v>24.95</v>
       </c>
       <c r="D4" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E4" s="3">
-        <v>11.23</v>
+        <f>C4-(C4*D4)</f>
+        <v>10.7285</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20">
@@ -530,10 +531,11 @@
         <v>0.5</v>
       </c>
       <c r="D5" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E5" s="3">
-        <v>0.23</v>
+        <f t="shared" ref="E5:E6" si="0">C5-(C5*D5)</f>
+        <v>0.21500000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20">
@@ -547,10 +549,11 @@
         <v>2.95</v>
       </c>
       <c r="D6" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E6" s="3">
-        <v>1.33</v>
+        <f t="shared" si="0"/>
+        <v>1.2685000000000002</v>
       </c>
     </row>
   </sheetData>
